--- a/tests/edb/data/pointsourceactivities.xlsx
+++ b/tests/edb/data/pointsourceactivities.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PointSource" sheetId="1" state="visible" r:id="rId2"/>
@@ -211,7 +211,7 @@
     <t xml:space="preserve">g/m3</t>
   </si>
   <si>
-    <t xml:space="preserve">ID </t>
+    <t xml:space="preserve">ID</t>
   </si>
   <si>
     <t xml:space="preserve">typeday</t>
@@ -533,11 +533,11 @@
   </sheetPr>
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="34.18"/>
@@ -919,7 +919,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
   </cols>
@@ -971,7 +971,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.98"/>
@@ -1087,11 +1087,11 @@
   </sheetPr>
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">

--- a/tests/edb/data/pointsourceactivities.xlsx
+++ b/tests/edb/data/pointsourceactivities.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PointSource" sheetId="1" state="visible" r:id="rId2"/>
@@ -43,10 +43,10 @@
     <t xml:space="preserve">timevar</t>
   </si>
   <si>
-    <t xml:space="preserve">activitycode1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activitycode2</t>
+    <t xml:space="preserve">activitycode_code_set1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activitycode_code_set2</t>
   </si>
   <si>
     <t xml:space="preserve">activitycode3</t>
@@ -533,11 +533,11 @@
   </sheetPr>
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="34.18"/>
@@ -919,7 +919,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
   </cols>
@@ -971,7 +971,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.98"/>
@@ -1087,11 +1087,11 @@
   </sheetPr>
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">

--- a/tests/edb/data/pointsourceactivities.xlsx
+++ b/tests/edb/data/pointsourceactivities.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PointSource" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Activity" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="EmissionFactor" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Timevar" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="CodeSet" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="ActivityCode" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="123">
   <si>
     <t xml:space="preserve">facility_id</t>
   </si>
@@ -350,14 +352,57 @@
   </si>
   <si>
     <t xml:space="preserve">December</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code set 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code_set1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code set 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code_set2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">codeset_slug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activitycode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vertical_distribution_slug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PublicPower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combustion in the production and transformation of energy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -437,7 +482,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -451,6 +496,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -533,11 +582,11 @@
   </sheetPr>
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="34.18"/>
@@ -919,7 +968,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
   </cols>
@@ -971,7 +1020,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.98"/>
@@ -1091,7 +1140,7 @@
       <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -2562,6 +2611,140 @@
       <c r="N54" s="0" t="n">
         <v>100</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.17"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.62"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/tests/edb/data/pointsourceactivities.xlsx
+++ b/tests/edb/data/pointsourceactivities.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PointSource" sheetId="1" state="visible" r:id="rId2"/>
@@ -582,11 +582,11 @@
   </sheetPr>
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="34.18"/>
@@ -965,10 +965,10 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="V1:V5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
   </cols>
@@ -1017,10 +1017,10 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="V1:V5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.98"/>
@@ -1137,10 +1137,10 @@
   <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="1" sqref="V1:V5 A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
@@ -2631,10 +2631,10 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="V1:V5 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.17"/>
@@ -2685,11 +2685,11 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="1" sqref="V1:V5 C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.06"/>

--- a/tests/edb/data/pointsourceactivities.xlsx
+++ b/tests/edb/data/pointsourceactivities.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PointSource" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="124">
   <si>
     <t xml:space="preserve">facility_id</t>
   </si>
@@ -93,99 +93,99 @@
     <t xml:space="preserve">unit</t>
   </si>
   <si>
+    <t xml:space="preserve">act:Residential-plants-pellet-stove-pellet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">act:Residential-plants-Open-fireplaces-wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vedspis1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.A.4.b.i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vedspis2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facility2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">officehours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ton/year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pellet1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.271</t>
+  </si>
+  <si>
     <t xml:space="preserve">activity_name</t>
   </si>
   <si>
-    <t xml:space="preserve">activity_rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">activity_unit (do not fill in, automatically taken from activity-sheet)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vedspis1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.A.4.b.i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val1</t>
+    <t xml:space="preserve">activity_unit</t>
   </si>
   <si>
     <t xml:space="preserve">Residential-plants-Open-fireplaces-wood</t>
   </si>
   <si>
-    <t xml:space="preserve">vedspis2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">facility2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">officehours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ton/year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pellet1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.271</t>
+    <t xml:space="preserve">GJ/yr</t>
   </si>
   <si>
     <t xml:space="preserve">Residential-plants-pellet-stove-pellet</t>
   </si>
   <si>
-    <t xml:space="preserve">activity_unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GJ/yr</t>
-  </si>
-  <si>
     <t xml:space="preserve">m3/yr</t>
   </si>
   <si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t xml:space="preserve">emissionfactor_unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activity_unit (do not fill in, automatically taken from activity-sheet to check compatibility of units)</t>
   </si>
   <si>
     <t xml:space="preserve">CO</t>
@@ -482,7 +485,11 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -491,11 +498,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -582,81 +593,83 @@
   </sheetPr>
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1:V5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W19" activeCellId="0" sqref="W19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="34.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="36.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="0" t="s">
@@ -665,286 +678,264 @@
       <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="M2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="1"/>
-      <c r="W2" s="0" t="s">
-        <v>32</v>
-      </c>
+      <c r="S2" s="2"/>
       <c r="X2" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y2" s="2" t="str">
-        <f aca="false">IF(ISBLANK(W2),"",INDEX(Activity!B:B,MATCH(W2,Activity!A:A,0),1))</f>
-        <v>GJ/yr</v>
-      </c>
+      <c r="Y2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="n">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="M3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="O3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
       <c r="X3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Y3" s="2" t="str">
-        <f aca="false">IF(ISBLANK(W3),"",INDEX(Activity!B:B,MATCH(W3,Activity!A:A,0),1))</f>
-        <v>GJ/yr</v>
-      </c>
+      <c r="Y3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="S4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y4" s="2" t="str">
-        <f aca="false">IF(ISBLANK(W4),"",INDEX(Activity!B:B,MATCH(W4,Activity!A:A,0),1))</f>
-        <v/>
-      </c>
+      <c r="Y4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1" t="n">
+      <c r="J5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="L5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="M5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="N5" s="1" t="n">
+      <c r="N5" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="W5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="X5" s="0" t="n">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="W5" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Y5" s="2" t="str">
-        <f aca="false">IF(ISBLANK(W5),"",INDEX(Activity!B:B,MATCH(W5,Activity!A:A,0),1))</f>
-        <v>m3/yr</v>
-      </c>
+      <c r="Y5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="2"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -965,34 +956,34 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="V1:V5 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>53</v>
@@ -1016,107 +1007,107 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="V1:V5 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
+      <c r="E1" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
+      <c r="A2" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>4600</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="2" t="str">
+        <v>59</v>
+      </c>
+      <c r="E2" s="5" t="str">
         <f aca="false">INDEX(Activity!B:B,MATCH(A2,Activity!A:A,0),1)</f>
         <v>GJ/yr</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
+      <c r="A3" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>484</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="2" t="str">
+        <v>59</v>
+      </c>
+      <c r="E3" s="5" t="str">
         <f aca="false">INDEX(Activity!B:B,MATCH(A3,Activity!A:A,0),1)</f>
         <v>GJ/yr</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>32</v>
+      <c r="A4" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>900</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="2" t="str">
+        <v>59</v>
+      </c>
+      <c r="E4" s="5" t="str">
         <f aca="false">INDEX(Activity!B:B,MATCH(A4,Activity!A:A,0),1)</f>
         <v>GJ/yr</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>50</v>
+      <c r="A5" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>900</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="2" t="str">
+        <v>62</v>
+      </c>
+      <c r="E5" s="5" t="str">
         <f aca="false">INDEX(Activity!B:B,MATCH(A5,Activity!A:A,0),1)</f>
         <v>m3/yr</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="1"/>
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1137,47 +1128,47 @@
   <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="1" sqref="V1:V5 A28"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>70</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="C2" s="0" t="n">
         <v>100</v>
       </c>
@@ -1201,8 +1192,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
-        <v>73</v>
+      <c r="B3" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>100</v>
@@ -1227,8 +1218,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3" t="s">
-        <v>74</v>
+      <c r="B4" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>100</v>
@@ -1253,8 +1244,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3" t="s">
-        <v>75</v>
+      <c r="B5" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>100</v>
@@ -1279,8 +1270,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3" t="s">
-        <v>76</v>
+      <c r="B6" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>100</v>
@@ -1305,8 +1296,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="s">
-        <v>77</v>
+      <c r="B7" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>100</v>
@@ -1331,8 +1322,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="s">
-        <v>78</v>
+      <c r="B8" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>100</v>
@@ -1357,8 +1348,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3" t="s">
-        <v>79</v>
+      <c r="B9" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>100</v>
@@ -1383,8 +1374,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3" t="s">
-        <v>80</v>
+      <c r="B10" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>100</v>
@@ -1409,8 +1400,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3" t="s">
-        <v>81</v>
+      <c r="B11" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>100</v>
@@ -1435,8 +1426,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="s">
-        <v>82</v>
+      <c r="B12" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>100</v>
@@ -1461,8 +1452,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3" t="s">
-        <v>83</v>
+      <c r="B13" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>100</v>
@@ -1487,8 +1478,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3" t="s">
-        <v>84</v>
+      <c r="B14" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>100</v>
@@ -1513,8 +1504,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3" t="s">
-        <v>85</v>
+      <c r="B15" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>100</v>
@@ -1539,8 +1530,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3" t="s">
-        <v>86</v>
+      <c r="B16" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>100</v>
@@ -1565,8 +1556,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3" t="s">
-        <v>87</v>
+      <c r="B17" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>100</v>
@@ -1591,8 +1582,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3" t="s">
-        <v>88</v>
+      <c r="B18" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>100</v>
@@ -1617,8 +1608,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3" t="s">
-        <v>89</v>
+      <c r="B19" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>100</v>
@@ -1643,8 +1634,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3" t="s">
-        <v>90</v>
+      <c r="B20" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>100</v>
@@ -1669,8 +1660,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3" t="s">
-        <v>91</v>
+      <c r="B21" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>100</v>
@@ -1695,8 +1686,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="3" t="s">
-        <v>92</v>
+      <c r="B22" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>100</v>
@@ -1721,8 +1712,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3" t="s">
-        <v>93</v>
+      <c r="B23" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>100</v>
@@ -1747,8 +1738,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3" t="s">
-        <v>94</v>
+      <c r="B24" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>100</v>
@@ -1773,8 +1764,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3" t="s">
-        <v>95</v>
+      <c r="B25" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>100</v>
@@ -1799,44 +1790,44 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="E26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="G26" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="H26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="I26" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="J26" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="K26" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="L26" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="M26" s="4" t="s">
         <v>108</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1878,40 +1869,40 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="F28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="G28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="H28" s="4" t="s">
         <v>70</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>72</v>
+        <v>40</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -1936,8 +1927,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3" t="s">
-        <v>73</v>
+      <c r="B30" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -1962,8 +1953,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="3" t="s">
-        <v>74</v>
+      <c r="B31" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -1988,8 +1979,8 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3" t="s">
-        <v>75</v>
+      <c r="B32" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -2014,8 +2005,8 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="3" t="s">
-        <v>76</v>
+      <c r="B33" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -2040,8 +2031,8 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="3" t="s">
-        <v>77</v>
+      <c r="B34" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -2066,8 +2057,8 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="3" t="s">
-        <v>78</v>
+      <c r="B35" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -2092,8 +2083,8 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="3" t="s">
-        <v>79</v>
+      <c r="B36" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -2118,8 +2109,8 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="3" t="s">
-        <v>80</v>
+      <c r="B37" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -2144,8 +2135,8 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="3" t="s">
-        <v>81</v>
+      <c r="B38" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>100</v>
@@ -2170,8 +2161,8 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3" t="s">
-        <v>82</v>
+      <c r="B39" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>100</v>
@@ -2196,8 +2187,8 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3" t="s">
-        <v>83</v>
+      <c r="B40" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>100</v>
@@ -2222,8 +2213,8 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="3" t="s">
-        <v>84</v>
+      <c r="B41" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>100</v>
@@ -2248,8 +2239,8 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="3" t="s">
-        <v>85</v>
+      <c r="B42" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>100</v>
@@ -2274,8 +2265,8 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="3" t="s">
-        <v>86</v>
+      <c r="B43" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>100</v>
@@ -2300,8 +2291,8 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="3" t="s">
-        <v>87</v>
+      <c r="B44" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>100</v>
@@ -2326,8 +2317,8 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="3" t="s">
-        <v>88</v>
+      <c r="B45" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>100</v>
@@ -2352,8 +2343,8 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="3" t="s">
-        <v>89</v>
+      <c r="B46" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -2378,8 +2369,8 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="3" t="s">
-        <v>90</v>
+      <c r="B47" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -2404,8 +2395,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="3" t="s">
-        <v>91</v>
+      <c r="B48" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -2430,8 +2421,8 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="3" t="s">
-        <v>92</v>
+      <c r="B49" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -2456,8 +2447,8 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="3" t="s">
-        <v>93</v>
+      <c r="B50" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -2482,8 +2473,8 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="3" t="s">
-        <v>94</v>
+      <c r="B51" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>0</v>
@@ -2508,8 +2499,8 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="3" t="s">
-        <v>95</v>
+      <c r="B52" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>0</v>
@@ -2534,44 +2525,44 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="D53" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="E53" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="G53" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="H53" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="I53" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="J53" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="K53" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="L53" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="N53" s="3" t="s">
+      <c r="M53" s="4" t="s">
         <v>108</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2631,40 +2622,40 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="V1:V5 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>111</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2686,65 +2677,65 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="1" sqref="V1:V5 C20"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.62"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>119</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>114</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>114</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>116</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4"/>
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/tests/edb/data/pointsourceactivities.xlsx
+++ b/tests/edb/data/pointsourceactivities.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PointSource" sheetId="1" state="visible" r:id="rId2"/>
@@ -90,7 +90,7 @@
     <t xml:space="preserve">subst:PM10</t>
   </si>
   <si>
-    <t xml:space="preserve">unit</t>
+    <t xml:space="preserve">emission_unit</t>
   </si>
   <si>
     <t xml:space="preserve">act:Residential-plants-pellet-stove-pellet</t>
@@ -485,16 +485,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -593,83 +585,82 @@
   </sheetPr>
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W19" activeCellId="0" sqref="W19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="34.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="36.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="0" t="s">
@@ -678,172 +669,172 @@
       <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3"/>
+      <c r="Y1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M2" s="2" t="n">
+      <c r="M2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="N2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="2"/>
+      <c r="S2" s="1"/>
       <c r="X2" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="Y2" s="3"/>
+      <c r="Y2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="n">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M3" s="2" t="n">
+      <c r="M3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="N3" s="2" t="n">
+      <c r="N3" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="O3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
+      <c r="O3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
       <c r="X3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="Y3" s="3"/>
+      <c r="Y3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="n">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M4" s="2" t="n">
+      <c r="M4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="N4" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="O4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2" t="s">
+      <c r="O4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="2" t="n">
+      <c r="S4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2" t="s">
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" s="3"/>
+      <c r="Y4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -852,90 +843,90 @@
       <c r="B5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="2" t="n">
+      <c r="M5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="N5" s="2" t="n">
+      <c r="N5" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="S5" s="1"/>
       <c r="W5" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Y5" s="3"/>
+      <c r="Y5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="3"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -959,30 +950,30 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -1007,35 +998,35 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -1047,13 +1038,13 @@
       <c r="D2" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="5" t="str">
+      <c r="E2" s="3" t="str">
         <f aca="false">INDEX(Activity!B:B,MATCH(A2,Activity!A:A,0),1)</f>
         <v>GJ/yr</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -1065,13 +1056,13 @@
       <c r="D3" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="5" t="str">
+      <c r="E3" s="3" t="str">
         <f aca="false">INDEX(Activity!B:B,MATCH(A3,Activity!A:A,0),1)</f>
         <v>GJ/yr</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -1083,13 +1074,13 @@
       <c r="D4" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="5" t="str">
+      <c r="E4" s="3" t="str">
         <f aca="false">INDEX(Activity!B:B,MATCH(A4,Activity!A:A,0),1)</f>
         <v>GJ/yr</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="0" t="s">
@@ -1101,13 +1092,13 @@
       <c r="D5" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="5" t="str">
+      <c r="E5" s="3" t="str">
         <f aca="false">INDEX(Activity!B:B,MATCH(A5,Activity!A:A,0),1)</f>
         <v>m3/yr</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="2"/>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1131,34 +1122,34 @@
       <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1166,7 +1157,7 @@
       <c r="A2" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -1192,7 +1183,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -1218,7 +1209,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -1244,7 +1235,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -1270,7 +1261,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -1296,7 +1287,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -1322,7 +1313,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -1348,7 +1339,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -1374,7 +1365,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -1400,7 +1391,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -1426,7 +1417,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -1452,7 +1443,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -1478,7 +1469,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -1504,7 +1495,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -1530,7 +1521,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -1556,7 +1547,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -1582,7 +1573,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -1608,7 +1599,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -1634,7 +1625,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -1660,7 +1651,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -1686,7 +1677,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -1712,7 +1703,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -1738,7 +1729,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -1764,7 +1755,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -1790,43 +1781,43 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="E26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1869,31 +1860,31 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1901,7 +1892,7 @@
       <c r="A29" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C29" s="0" t="n">
@@ -1927,7 +1918,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C30" s="0" t="n">
@@ -1953,7 +1944,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="0" t="n">
@@ -1979,7 +1970,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="0" t="n">
@@ -2005,7 +1996,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C33" s="0" t="n">
@@ -2031,7 +2022,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C34" s="0" t="n">
@@ -2057,7 +2048,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C35" s="0" t="n">
@@ -2083,7 +2074,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C36" s="0" t="n">
@@ -2109,7 +2100,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C37" s="0" t="n">
@@ -2135,7 +2126,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C38" s="0" t="n">
@@ -2161,7 +2152,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="0" t="n">
@@ -2187,7 +2178,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C40" s="0" t="n">
@@ -2213,7 +2204,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C41" s="0" t="n">
@@ -2239,7 +2230,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C42" s="0" t="n">
@@ -2265,7 +2256,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C43" s="0" t="n">
@@ -2291,7 +2282,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C44" s="0" t="n">
@@ -2317,7 +2308,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C45" s="0" t="n">
@@ -2343,7 +2334,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C46" s="0" t="n">
@@ -2369,7 +2360,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C47" s="0" t="n">
@@ -2395,7 +2386,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C48" s="0" t="n">
@@ -2421,7 +2412,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C49" s="0" t="n">
@@ -2447,7 +2438,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C50" s="0" t="n">
@@ -2473,7 +2464,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C51" s="0" t="n">
@@ -2499,7 +2490,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C52" s="0" t="n">
@@ -2525,43 +2516,43 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F53" s="4" t="s">
+      <c r="E53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="I53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="J53" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K53" s="4" t="s">
+      <c r="K53" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L53" s="4" t="s">
+      <c r="L53" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M53" s="4" t="s">
+      <c r="M53" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N53" s="4" t="s">
+      <c r="N53" s="2" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2625,20 +2616,20 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2680,24 +2671,24 @@
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.62"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2705,7 +2696,7 @@
       <c r="A2" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -2716,7 +2707,7 @@
       <c r="A3" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -2727,7 +2718,7 @@
       <c r="A4" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -2735,7 +2726,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="6"/>
+      <c r="B5" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/tests/edb/data/pointsourceactivities.xlsx
+++ b/tests/edb/data/pointsourceactivities.xlsx
@@ -66,7 +66,7 @@
     <t xml:space="preserve">gas_speed</t>
   </si>
   <si>
-    <t xml:space="preserve">gas_temperature</t>
+    <t xml:space="preserve">gas_temperature[K]</t>
   </si>
   <si>
     <t xml:space="preserve">house_width</t>
@@ -585,11 +585,11 @@
   </sheetPr>
   <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="34.18"/>
@@ -950,7 +950,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
   </cols>
@@ -1002,7 +1002,7 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.98"/>
@@ -1122,7 +1122,7 @@
       <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -2616,7 +2616,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.17"/>
@@ -2671,7 +2671,7 @@
       <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.06"/>
